--- a/nmadb/501269.xlsx
+++ b/nmadb/501269.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Dropbox\Network Meta-Analyses of  2013\NMA 2013\With outcome data available (28)\Dichotomous (16)\Study level (2)\Myrsini\Gagne\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Study</t>
   </si>
@@ -32,12 +27,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>tA</t>
-  </si>
-  <si>
-    <t>tB</t>
-  </si>
-  <si>
     <t>CAPRIE</t>
   </si>
   <si>
@@ -80,17 +69,26 @@
     <t>Ticagrelor</t>
   </si>
   <si>
-    <t>logRR</t>
-  </si>
-  <si>
-    <t>se(logRR)</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=logRR</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,197 +402,221 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-0.27443685000000001</v>
+      </c>
+      <c r="E2">
+        <v>8.6971069999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-0.46203546000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.13970398000000001</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-0.82098055000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.32738428000000003</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-0.44628709999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.16287979</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>-0.27443685000000001</v>
-      </c>
-      <c r="E3">
-        <v>8.6971069999999998E-2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-7.2570689999999993E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.13809724000000001</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-0.46203546000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.13970398000000001</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>-0.22314355</v>
+      </c>
+      <c r="E7">
+        <v>0.11890044</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>-0.82098055000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.32738428000000003</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-0.44628709999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.16287979</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>-7.2570689999999993E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.13809724000000001</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-0.22314355</v>
+        <v>-0.27443685000000001</v>
       </c>
       <c r="E8">
-        <v>0.11890044</v>
+        <v>8.9789900000000006E-2</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -603,52 +625,32 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>-0.27443685000000001</v>
+        <v>-0.61618614000000005</v>
       </c>
       <c r="E9">
-        <v>8.9789900000000006E-2</v>
+        <v>0.16339374000000001</v>
       </c>
       <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>-0.61618614000000005</v>
+        <v>-0.18632957999999999</v>
       </c>
       <c r="E10">
-        <v>0.16339374000000001</v>
+        <v>9.8383289999999998E-2</v>
       </c>
       <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>-0.18632957999999999</v>
-      </c>
-      <c r="E11">
-        <v>9.8383289999999998E-2</v>
-      </c>
-      <c r="F11">
         <v>9</v>
       </c>
     </row>
